--- a/window_test/size_preview.xlsx
+++ b/window_test/size_preview.xlsx
@@ -43,7 +43,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -66,13 +66,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -353,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,6 +664,18 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
       <c r="F6" s="1">
         <v>30</v>
       </c>
@@ -692,6 +720,18 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
       <c r="M7" s="1">
         <v>48</v>
       </c>
@@ -718,6 +758,36 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>5</v>
+      </c>
+      <c r="J8" s="2">
+        <v>5</v>
+      </c>
+      <c r="K8" s="2">
+        <v>3</v>
+      </c>
       <c r="M8" s="1">
         <v>56</v>
       </c>
@@ -741,6 +811,318 @@
       </c>
       <c r="T8" s="1">
         <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>8</v>
+      </c>
+      <c r="H9" s="2">
+        <v>8</v>
+      </c>
+      <c r="I9" s="2">
+        <v>8</v>
+      </c>
+      <c r="J9" s="2">
+        <v>8</v>
+      </c>
+      <c r="K9" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F10" s="2">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2">
+        <v>8</v>
+      </c>
+      <c r="H10" s="2">
+        <v>8</v>
+      </c>
+      <c r="I10" s="2">
+        <v>8</v>
+      </c>
+      <c r="J10" s="2">
+        <v>8</v>
+      </c>
+      <c r="K10" s="2">
+        <v>5</v>
+      </c>
+      <c r="M10" s="2">
+        <v>3</v>
+      </c>
+      <c r="N10" s="2">
+        <v>5</v>
+      </c>
+      <c r="O10" s="2">
+        <v>5</v>
+      </c>
+      <c r="P10" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>5</v>
+      </c>
+      <c r="R10" s="2">
+        <v>5</v>
+      </c>
+      <c r="S10" s="2">
+        <v>5</v>
+      </c>
+      <c r="T10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F11" s="2">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2">
+        <v>8</v>
+      </c>
+      <c r="H11" s="2">
+        <v>8</v>
+      </c>
+      <c r="I11" s="2">
+        <v>8</v>
+      </c>
+      <c r="J11" s="2">
+        <v>8</v>
+      </c>
+      <c r="K11" s="2">
+        <v>5</v>
+      </c>
+      <c r="M11" s="2">
+        <v>5</v>
+      </c>
+      <c r="N11" s="2">
+        <v>8</v>
+      </c>
+      <c r="O11" s="2">
+        <v>8</v>
+      </c>
+      <c r="P11" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>8</v>
+      </c>
+      <c r="R11" s="2">
+        <v>8</v>
+      </c>
+      <c r="S11" s="2">
+        <v>8</v>
+      </c>
+      <c r="T11" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F12" s="2">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2">
+        <v>8</v>
+      </c>
+      <c r="H12" s="2">
+        <v>8</v>
+      </c>
+      <c r="I12" s="2">
+        <v>8</v>
+      </c>
+      <c r="J12" s="2">
+        <v>8</v>
+      </c>
+      <c r="K12" s="2">
+        <v>5</v>
+      </c>
+      <c r="M12" s="2">
+        <v>5</v>
+      </c>
+      <c r="N12" s="2">
+        <v>8</v>
+      </c>
+      <c r="O12" s="2">
+        <v>8</v>
+      </c>
+      <c r="P12" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>8</v>
+      </c>
+      <c r="R12" s="2">
+        <v>8</v>
+      </c>
+      <c r="S12" s="2">
+        <v>8</v>
+      </c>
+      <c r="T12" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F13" s="2">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2">
+        <v>5</v>
+      </c>
+      <c r="J13" s="2">
+        <v>5</v>
+      </c>
+      <c r="K13" s="2">
+        <v>3</v>
+      </c>
+      <c r="M13" s="2">
+        <v>5</v>
+      </c>
+      <c r="N13" s="2">
+        <v>8</v>
+      </c>
+      <c r="O13" s="2">
+        <v>8</v>
+      </c>
+      <c r="P13" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>8</v>
+      </c>
+      <c r="R13" s="2">
+        <v>8</v>
+      </c>
+      <c r="S13" s="2">
+        <v>8</v>
+      </c>
+      <c r="T13" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M14" s="2">
+        <v>5</v>
+      </c>
+      <c r="N14" s="2">
+        <v>8</v>
+      </c>
+      <c r="O14" s="2">
+        <v>8</v>
+      </c>
+      <c r="P14" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>8</v>
+      </c>
+      <c r="R14" s="2">
+        <v>8</v>
+      </c>
+      <c r="S14" s="2">
+        <v>8</v>
+      </c>
+      <c r="T14" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M15" s="2">
+        <v>5</v>
+      </c>
+      <c r="N15" s="2">
+        <v>8</v>
+      </c>
+      <c r="O15" s="2">
+        <v>8</v>
+      </c>
+      <c r="P15" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>8</v>
+      </c>
+      <c r="R15" s="2">
+        <v>8</v>
+      </c>
+      <c r="S15" s="2">
+        <v>8</v>
+      </c>
+      <c r="T15" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M16" s="2">
+        <v>5</v>
+      </c>
+      <c r="N16" s="2">
+        <v>8</v>
+      </c>
+      <c r="O16" s="2">
+        <v>8</v>
+      </c>
+      <c r="P16" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>8</v>
+      </c>
+      <c r="R16" s="2">
+        <v>8</v>
+      </c>
+      <c r="S16" s="2">
+        <v>8</v>
+      </c>
+      <c r="T16" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M17" s="2">
+        <v>3</v>
+      </c>
+      <c r="N17" s="2">
+        <v>5</v>
+      </c>
+      <c r="O17" s="2">
+        <v>5</v>
+      </c>
+      <c r="P17" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>5</v>
+      </c>
+      <c r="R17" s="2">
+        <v>5</v>
+      </c>
+      <c r="S17" s="2">
+        <v>5</v>
+      </c>
+      <c r="T17" s="2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
